--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MDS\MATLAB\DMDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\MDS\MATLAB\DMDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="@@1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Период 1</t>
   </si>
@@ -39,16 +40,32 @@
   </si>
   <si>
     <t>Шен. б.масса</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -78,16 +95,36 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CEE8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,11 +132,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2CEE8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2CEE8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2CEE8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2CEE8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -111,9 +164,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="style1445417613595" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,20 +451,20 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -421,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +495,7 @@
         <v>0.14642857142857144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +512,7 @@
         <v>-0.15357142857142858</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,7 +529,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,6 +543,276 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.62944737278635787</v>
+      </c>
+      <c r="C2">
+        <v>0.81158387415123845</v>
+      </c>
+      <c r="D2">
+        <v>-0.74602636741298789</v>
+      </c>
+      <c r="E2">
+        <v>0.82675171227803879</v>
+      </c>
+      <c r="F2">
+        <v>0.26471849245081902</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-0.80491919000118095</v>
+      </c>
+      <c r="C3">
+        <v>-0.44300356226590321</v>
+      </c>
+      <c r="D3">
+        <v>9.3763038409967692E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.9150136708685952</v>
+      </c>
+      <c r="F3">
+        <v>0.92977707039855306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>-0.68477383664490343</v>
+      </c>
+      <c r="C4">
+        <v>0.94118556352123139</v>
+      </c>
+      <c r="D4">
+        <v>0.91433389648589114</v>
+      </c>
+      <c r="E4">
+        <v>-2.9248702554317552E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.60056093777760022</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-0.71622732274556933</v>
+      </c>
+      <c r="C5">
+        <v>-0.15647743474745002</v>
+      </c>
+      <c r="D5">
+        <v>0.83147105037813418</v>
+      </c>
+      <c r="E5">
+        <v>0.58441465911910884</v>
+      </c>
+      <c r="F5">
+        <v>0.91898485278580599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.31148139831317367</v>
+      </c>
+      <c r="C6">
+        <v>-0.92857664285162089</v>
+      </c>
+      <c r="D6">
+        <v>0.69825861173755421</v>
+      </c>
+      <c r="E6">
+        <v>0.8679864955151011</v>
+      </c>
+      <c r="F6">
+        <v>0.35747030971554694</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.56010640326948058</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-0.48533028327122485</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.32393807084555781</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-0.17219032552818037</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>0.56010640326948058</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-0.61726531299710319</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.7839726777341748E-3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.5244409685616436E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>-0.48533028327122485</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-0.61726531299710319</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.13243612895055301</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-0.21166334073676993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>0.32393807084555781</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.7839726777341748E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.13243612895055301</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-0.74296939962687936</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>-0.17219032552818037</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.5244409685616436E-3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.21166334073676993</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-0.74296939962687936</v>
+      </c>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
     </row>
